--- a/data/Current_Comparison_SVM_RF/limma_all_results.xlsx
+++ b/data/Current_Comparison_SVM_RF/limma_all_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,50 +1262,50 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>16062</v>
+        <v>14344</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ENSG00000266538</t>
+          <t>ENSG00000236552</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1.17000204548993</v>
+        <v>0.6893084948071621</v>
       </c>
       <c r="E11" t="n">
-        <v>0.444472047768189</v>
+        <v>5.92907786953997</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.89649966291282</v>
+        <v>4.89075866626761</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94044170959982e-06</v>
+        <v>3.01336190979763e-06</v>
       </c>
       <c r="H11" t="n">
         <v>0.0019724102474338</v>
       </c>
       <c r="I11" t="n">
-        <v>3.89888107532474</v>
+        <v>4.32742115832092</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>chr17</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>15530773</v>
+        <v>96750288</v>
       </c>
       <c r="L11" t="n">
-        <v>15531089</v>
+        <v>96750899</v>
       </c>
       <c r="M11" t="n">
-        <v>0.501577287066246</v>
+        <v>0.573529411764706</v>
       </c>
       <c r="N11" t="n">
-        <v>0.501577287066246</v>
+        <v>0.573529411764706</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1313,79 +1313,79 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>317</v>
+        <v>612</v>
       </c>
       <c r="Q11" t="n">
-        <v>316</v>
+        <v>611</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>lincRNA</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>50.16</v>
+        <v>57.35</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>RP11-385D13.3</t>
+          <t>RPL13AP5</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n">
-        <v>14344</v>
+        <v>16062</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ENSG00000236552</t>
+          <t>ENSG00000266538</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6893084948071621</v>
+        <v>-1.17000204548993</v>
       </c>
       <c r="E12" t="n">
-        <v>5.92907786953997</v>
+        <v>0.444472047768189</v>
       </c>
       <c r="F12" t="n">
-        <v>4.89075866626761</v>
+        <v>-4.89649966291282</v>
       </c>
       <c r="G12" t="n">
-        <v>3.01336190979763e-06</v>
+        <v>2.94044170959982e-06</v>
       </c>
       <c r="H12" t="n">
         <v>0.0019724102474338</v>
       </c>
       <c r="I12" t="n">
-        <v>4.32742115832092</v>
+        <v>3.89888107532474</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>chr10</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>96750288</v>
+        <v>15530773</v>
       </c>
       <c r="L12" t="n">
-        <v>96750899</v>
+        <v>15531089</v>
       </c>
       <c r="M12" t="n">
-        <v>0.573529411764706</v>
+        <v>0.501577287066246</v>
       </c>
       <c r="N12" t="n">
-        <v>0.573529411764706</v>
+        <v>0.501577287066246</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1393,30 +1393,30 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>612</v>
+        <v>317</v>
       </c>
       <c r="Q12" t="n">
-        <v>611</v>
+        <v>316</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>lincRNA</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>57.35</v>
+        <v>50.16</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>RPL13AP5</t>
+          <t>RP11-385D13.3</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -1742,61 +1742,61 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n">
-        <v>4918</v>
+        <v>3252</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ENSG00000130748</t>
+          <t>ENSG00000112667</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.829232401819662</v>
+        <v>0.668108929538931</v>
       </c>
       <c r="E17" t="n">
-        <v>2.52801951369852</v>
+        <v>2.81821279865785</v>
       </c>
       <c r="F17" t="n">
-        <v>4.53481875547118</v>
+        <v>4.68327272787279</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3285603497453e-05</v>
+        <v>7.21697361815114e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003593219552422</v>
+        <v>0.0029490568242914</v>
       </c>
       <c r="I17" t="n">
-        <v>2.95991625358922</v>
+        <v>3.52206416510472</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>47045907</v>
+        <v>43225629</v>
       </c>
       <c r="L17" t="n">
-        <v>47048630</v>
+        <v>43229484</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6160058737151251</v>
+        <v>0.553163900414938</v>
       </c>
       <c r="N17" t="n">
-        <v>0.722604117814355</v>
+        <v>0.636308962271762</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.6058823529411764</t>
+          <t>0.6107652845667765</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2724</v>
+        <v>3856</v>
       </c>
       <c r="Q17" t="n">
-        <v>660</v>
+        <v>1357</v>
       </c>
       <c r="R17" t="n">
         <v>8</v>
@@ -1807,11 +1807,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>61.6</v>
+        <v>55.32</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>TMEM160</t>
+          <t>DNPH1</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1822,61 +1822,61 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n">
-        <v>10192</v>
+        <v>4918</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ENSG00000175602</t>
+          <t>ENSG00000130748</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.728382294285984</v>
+        <v>0.829232401819662</v>
       </c>
       <c r="E18" t="n">
-        <v>4.47202950728453</v>
+        <v>2.52801951369852</v>
       </c>
       <c r="F18" t="n">
-        <v>4.50650202343766</v>
+        <v>4.53481875547118</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49044061730177e-05</v>
+        <v>1.3285603497453e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0036753511909135</v>
+        <v>0.003593219552422</v>
       </c>
       <c r="I18" t="n">
-        <v>2.87187380617045</v>
+        <v>2.95991625358922</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>chr11</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>65890112</v>
+        <v>47045907</v>
       </c>
       <c r="L18" t="n">
-        <v>65891635</v>
+        <v>47048630</v>
       </c>
       <c r="M18" t="n">
-        <v>0.676509186351706</v>
+        <v>0.6160058737151251</v>
       </c>
       <c r="N18" t="n">
-        <v>0.676509186351706</v>
+        <v>0.722604117814355</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.6058823529411764</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1524</v>
+        <v>2724</v>
       </c>
       <c r="Q18" t="n">
-        <v>1523</v>
+        <v>660</v>
       </c>
       <c r="R18" t="n">
         <v>8</v>
@@ -1887,11 +1887,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>67.65000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CCDC85B</t>
+          <t>TMEM160</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1902,61 +1902,61 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B19" t="n">
-        <v>99</v>
+        <v>10192</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ENSG00000006015</t>
+          <t>ENSG00000175602</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.587989669579332</v>
+        <v>0.728382294285984</v>
       </c>
       <c r="E19" t="n">
-        <v>4.73556606622045</v>
+        <v>4.47202950728453</v>
       </c>
       <c r="F19" t="n">
-        <v>4.36061522397603</v>
+        <v>4.50650202343766</v>
       </c>
       <c r="G19" t="n">
-        <v>2.67522026328703e-05</v>
+        <v>1.49044061730177e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0051018146173647</v>
+        <v>0.0036753511909135</v>
       </c>
       <c r="I19" t="n">
-        <v>2.32554631474561</v>
+        <v>2.87187380617045</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr11</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>18588685</v>
+        <v>65890112</v>
       </c>
       <c r="L19" t="n">
-        <v>18592336</v>
+        <v>65891635</v>
       </c>
       <c r="M19" t="n">
-        <v>0.602409638554217</v>
+        <v>0.676509186351706</v>
       </c>
       <c r="N19" t="n">
-        <v>0.596380831556675</v>
+        <v>0.676509186351706</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.5940195316619243</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3652</v>
+        <v>1524</v>
       </c>
       <c r="Q19" t="n">
-        <v>3367</v>
+        <v>1523</v>
       </c>
       <c r="R19" t="n">
         <v>8</v>
@@ -1967,171 +1967,171 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>60.24</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>C19orf60</t>
+          <t>CCDC85B</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>up</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" t="n">
-        <v>16314</v>
+        <v>99</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ENSG00000269893</t>
+          <t>ENSG00000006015</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.731641758601342</v>
+        <v>0.587989669579332</v>
       </c>
       <c r="E20" t="n">
-        <v>2.69434328104068</v>
+        <v>4.73556606622045</v>
       </c>
       <c r="F20" t="n">
-        <v>4.3581795452901</v>
+        <v>4.36061522397603</v>
       </c>
       <c r="G20" t="n">
-        <v>2.70118813478749e-05</v>
+        <v>2.67522026328703e-05</v>
       </c>
       <c r="H20" t="n">
         <v>0.0051018146173647</v>
       </c>
       <c r="I20" t="n">
-        <v>2.33521651758315</v>
+        <v>2.32554631474561</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>118278709</v>
+        <v>18588685</v>
       </c>
       <c r="L20" t="n">
-        <v>118279823</v>
+        <v>18592336</v>
       </c>
       <c r="M20" t="n">
-        <v>0.458295964125561</v>
+        <v>0.602409638554217</v>
       </c>
       <c r="N20" t="n">
-        <v>0.471145314158023</v>
+        <v>0.596380831556675</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.48174080216997855</t>
+          <t>0.5940195316619243</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>3652</v>
       </c>
       <c r="Q20" t="n">
-        <v>963</v>
+        <v>3367</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>lincRNA</t>
+          <t>protein_coding</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>45.83</v>
+        <v>60.24</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>SNHG8</t>
+          <t>C19orf60</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" t="n">
-        <v>13717</v>
+        <v>16314</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ENSG00000228205</t>
+          <t>ENSG00000269893</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5205783421945</v>
+        <v>0.731641758601342</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.87472380635306</v>
+        <v>2.69434328104068</v>
       </c>
       <c r="F21" t="n">
-        <v>4.35186097061321</v>
+        <v>4.3581795452901</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76968897637228e-05</v>
+        <v>2.70118813478749e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0051227584214565</v>
+        <v>0.0051018146173647</v>
       </c>
       <c r="I21" t="n">
-        <v>0.955278111909695</v>
+        <v>2.33521651758315</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>chr3</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>184149704</v>
+        <v>118278709</v>
       </c>
       <c r="L21" t="n">
-        <v>184150435</v>
+        <v>118279823</v>
       </c>
       <c r="M21" t="n">
-        <v>0.521857923497268</v>
+        <v>0.458295964125561</v>
       </c>
       <c r="N21" t="n">
-        <v>0.521857923497268</v>
+        <v>0.471145314158023</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.48174080216997855</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>732</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
-        <v>731</v>
+        <v>963</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>lincRNA</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>52.19</v>
+        <v>45.83</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>RP11-778D9.4</t>
+          <t>SNHG8</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2142,50 +2142,50 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" t="n">
-        <v>14604</v>
+        <v>13717</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ENSG00000240877</t>
+          <t>ENSG00000228205</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.21494504527023</v>
+        <v>1.5205783421945</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.26997248024262</v>
+        <v>-1.87472380635306</v>
       </c>
       <c r="F22" t="n">
-        <v>4.31315363129076</v>
+        <v>4.35186097061321</v>
       </c>
       <c r="G22" t="n">
-        <v>3.227248293987e-05</v>
+        <v>2.76968897637228e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0057863244666985</v>
+        <v>0.0051227584214565</v>
       </c>
       <c r="I22" t="n">
-        <v>0.698126360867753</v>
+        <v>0.955278111909695</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>chr7</t>
+          <t>chr3</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>149125690</v>
+        <v>184149704</v>
       </c>
       <c r="L22" t="n">
-        <v>149125986</v>
+        <v>184150435</v>
       </c>
       <c r="M22" t="n">
-        <v>0.673400673400673</v>
+        <v>0.521857923497268</v>
       </c>
       <c r="N22" t="n">
-        <v>0.673400673400673</v>
+        <v>0.521857923497268</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2193,25 +2193,25 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>297</v>
+        <v>732</v>
       </c>
       <c r="Q22" t="n">
-        <v>296</v>
+        <v>731</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>misc_RNA</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>67.34</v>
+        <v>52.19</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>RN7SL521P</t>
+          <t>RP11-778D9.4</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2542,76 +2542,76 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B27" t="n">
-        <v>9082</v>
+        <v>13478</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ENSG00000167700</t>
+          <t>ENSG00000225178</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.627356820684384</v>
+        <v>0.783376960167687</v>
       </c>
       <c r="E27" t="n">
-        <v>1.94790612766627</v>
+        <v>4.25051568495437</v>
       </c>
       <c r="F27" t="n">
-        <v>4.12536323834415</v>
+        <v>4.03962683729488</v>
       </c>
       <c r="G27" t="n">
-        <v>6.689517056055371e-05</v>
+        <v>9.2636653797244e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0077259815052666</v>
+        <v>0.009186862870637601</v>
       </c>
       <c r="I27" t="n">
-        <v>1.49977444338358</v>
+        <v>1.20674804031402</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>chr8</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>144509074</v>
+        <v>23827162</v>
       </c>
       <c r="L27" t="n">
-        <v>144511213</v>
+        <v>23828049</v>
       </c>
       <c r="M27" t="n">
-        <v>0.669626168224299</v>
+        <v>0.523648648648649</v>
       </c>
       <c r="N27" t="n">
-        <v>0.674745240504604</v>
+        <v>0.523648648648649</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.6365906671881698</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2140</v>
+        <v>888</v>
       </c>
       <c r="Q27" t="n">
-        <v>1820</v>
+        <v>887</v>
       </c>
       <c r="R27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>protein_coding</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>66.95999999999999</v>
+        <v>52.36</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>MFSD3</t>
+          <t>RPSAP58</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2622,50 +2622,50 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" t="n">
-        <v>13478</v>
+        <v>14438</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ENSG00000225178</t>
+          <t>ENSG00000237842</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.783376960167687</v>
+        <v>-1.45650858580194</v>
       </c>
       <c r="E28" t="n">
-        <v>4.25051568495437</v>
+        <v>-2.82764280868991</v>
       </c>
       <c r="F28" t="n">
-        <v>4.03962683729488</v>
+        <v>-4.03911896717126</v>
       </c>
       <c r="G28" t="n">
-        <v>9.2636653797244e-05</v>
+        <v>9.28142006257813e-05</v>
       </c>
       <c r="H28" t="n">
         <v>0.009186862870637601</v>
       </c>
       <c r="I28" t="n">
-        <v>1.20674804031402</v>
+        <v>-0.117679268254881</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>23827162</v>
+        <v>157059232</v>
       </c>
       <c r="L28" t="n">
-        <v>23828049</v>
+        <v>157060762</v>
       </c>
       <c r="M28" t="n">
-        <v>0.523648648648649</v>
+        <v>0.441541476159373</v>
       </c>
       <c r="N28" t="n">
-        <v>0.523648648648649</v>
+        <v>0.441541476159373</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>888</v>
+        <v>1531</v>
       </c>
       <c r="Q28" t="n">
-        <v>887</v>
+        <v>1530</v>
       </c>
       <c r="R28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2687,65 +2687,65 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>52.36</v>
+        <v>44.15</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>RPSAP58</t>
+          <t>RP11-110J1.2</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B29" t="n">
-        <v>14438</v>
+        <v>16512</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ENSG00000237842</t>
+          <t>ENSG00000272256</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-1.45650858580194</v>
+        <v>1.06150127765484</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.82764280868991</v>
+        <v>-1.80352446041292</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.03911896717126</v>
+        <v>3.99550721331477</v>
       </c>
       <c r="G29" t="n">
-        <v>9.28142006257813e-05</v>
+        <v>0.0001093349550522</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009186862870637601</v>
+        <v>0.009902703583622901</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.117679268254881</v>
+        <v>0.180137014818968</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>chr1</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>157059232</v>
+        <v>30082758</v>
       </c>
       <c r="L29" t="n">
-        <v>157060762</v>
+        <v>30083467</v>
       </c>
       <c r="M29" t="n">
-        <v>0.441541476159373</v>
+        <v>0.684507042253521</v>
       </c>
       <c r="N29" t="n">
-        <v>0.441541476159373</v>
+        <v>0.684507042253521</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2753,105 +2753,105 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1531</v>
+        <v>710</v>
       </c>
       <c r="Q29" t="n">
-        <v>1530</v>
+        <v>709</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>44.15</v>
+        <v>68.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>RP11-110J1.2</t>
+          <t>RP11-489E7.4</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="B30" t="n">
-        <v>16512</v>
+        <v>12419</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ENSG00000272256</t>
+          <t>ENSG00000203875</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.06150127765484</v>
+        <v>0.746436728390185</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.80352446041292</v>
+        <v>5.54279793944847</v>
       </c>
       <c r="F30" t="n">
-        <v>3.99550721331477</v>
+        <v>3.89021985013687</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001093349550522</v>
+        <v>0.0001615653455499</v>
       </c>
       <c r="H30" t="n">
-        <v>0.009902703583622901</v>
+        <v>0.0120290876553342</v>
       </c>
       <c r="I30" t="n">
-        <v>0.180137014818968</v>
+        <v>0.644770160638103</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>chr8</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>30082758</v>
+        <v>85660950</v>
       </c>
       <c r="L30" t="n">
-        <v>30083467</v>
+        <v>85678736</v>
       </c>
       <c r="M30" t="n">
-        <v>0.684507042253521</v>
+        <v>0.408950357002305</v>
       </c>
       <c r="N30" t="n">
-        <v>0.684507042253521</v>
+        <v>0.415148219013744</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.4036679194201364</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>710</v>
+        <v>17787</v>
       </c>
       <c r="Q30" t="n">
-        <v>709</v>
+        <v>4108</v>
       </c>
       <c r="R30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>processed_transcript</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>68.45</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>RP11-489E7.4</t>
+          <t>SNHG5</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2862,76 +2862,76 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" t="n">
-        <v>12419</v>
+        <v>17025</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ENSG00000203875</t>
+          <t>ENSG00000277383</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.746436728390185</v>
+        <v>0.967380023809018</v>
       </c>
       <c r="E31" t="n">
-        <v>5.54279793944847</v>
+        <v>-0.693038581467306</v>
       </c>
       <c r="F31" t="n">
-        <v>3.89021985013687</v>
+        <v>3.88689081606193</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001615653455499</v>
+        <v>0.0001635535392149</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0120290876553342</v>
+        <v>0.0120747867123748</v>
       </c>
       <c r="I31" t="n">
-        <v>0.644770160638103</v>
+        <v>0.282787997461952</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>chr6</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>85660950</v>
+        <v>47607873</v>
       </c>
       <c r="L31" t="n">
-        <v>85678736</v>
+        <v>47608454</v>
       </c>
       <c r="M31" t="n">
-        <v>0.408950357002305</v>
+        <v>0.654639175257732</v>
       </c>
       <c r="N31" t="n">
-        <v>0.415148219013744</v>
+        <v>0.654639175257732</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.4036679194201364</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>17787</v>
+        <v>582</v>
       </c>
       <c r="Q31" t="n">
-        <v>4108</v>
+        <v>581</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>processed_transcript</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>40.9</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>SNHG5</t>
+          <t>CTD-3001H11.2</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2942,50 +2942,50 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B32" t="n">
-        <v>17025</v>
+        <v>13161</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ENSG00000277383</t>
+          <t>ENSG00000215030</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.967380023809018</v>
+        <v>0.636222545665209</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.693038581467306</v>
+        <v>4.75704013275473</v>
       </c>
       <c r="F32" t="n">
-        <v>3.88689081606193</v>
+        <v>3.84763500127665</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0001635535392149</v>
+        <v>0.0001888254706288</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0120747867123748</v>
+        <v>0.0128430423656542</v>
       </c>
       <c r="I32" t="n">
-        <v>0.282787997461952</v>
+        <v>0.532635819998746</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>47607873</v>
+        <v>17383377</v>
       </c>
       <c r="L32" t="n">
-        <v>47608454</v>
+        <v>17384012</v>
       </c>
       <c r="M32" t="n">
-        <v>0.654639175257732</v>
+        <v>0.613207547169811</v>
       </c>
       <c r="N32" t="n">
-        <v>0.654639175257732</v>
+        <v>0.613207547169811</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2993,25 +2993,25 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="Q32" t="n">
-        <v>581</v>
+        <v>635</v>
       </c>
       <c r="R32" t="n">
         <v>8</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>65.45999999999999</v>
+        <v>61.32</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>CTD-3001H11.2</t>
+          <t>RPL13P12</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -3022,50 +3022,50 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B33" t="n">
-        <v>13161</v>
+        <v>17114</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ENSG00000215030</t>
+          <t>ENSG00000278771</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.636222545665209</v>
+        <v>1.18694168494508</v>
       </c>
       <c r="E33" t="n">
-        <v>4.75704013275473</v>
+        <v>-1.85740270373155</v>
       </c>
       <c r="F33" t="n">
-        <v>3.84763500127665</v>
+        <v>3.78764179540547</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001888254706288</v>
+        <v>0.0002347378714452</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0128430423656542</v>
+        <v>0.0146782175770949</v>
       </c>
       <c r="I33" t="n">
-        <v>0.532635819998746</v>
+        <v>-0.398177941845046</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>chr17</t>
+          <t>chr14</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>17383377</v>
+        <v>49853616</v>
       </c>
       <c r="L33" t="n">
-        <v>17384012</v>
+        <v>49853914</v>
       </c>
       <c r="M33" t="n">
-        <v>0.613207547169811</v>
+        <v>0.622073578595318</v>
       </c>
       <c r="N33" t="n">
-        <v>0.613207547169811</v>
+        <v>0.622073578595318</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3073,25 +3073,25 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>636</v>
+        <v>299</v>
       </c>
       <c r="Q33" t="n">
-        <v>635</v>
+        <v>298</v>
       </c>
       <c r="R33" t="n">
         <v>8</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>misc_RNA</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>61.32</v>
+        <v>62.21</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>RPL13P12</t>
+          <t>Metazoa_SRP</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3102,76 +3102,76 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="B34" t="n">
-        <v>17114</v>
+        <v>9714</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ENSG00000278771</t>
+          <t>ENSG00000171858</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.18694168494508</v>
+        <v>0.707407936783607</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.85740270373155</v>
+        <v>6.6743869274052</v>
       </c>
       <c r="F34" t="n">
-        <v>3.78764179540547</v>
+        <v>3.68114898960983</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0002347378714452</v>
+        <v>0.0003434263208868</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0146782175770949</v>
+        <v>0.0175416973380892</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.398177941845046</v>
+        <v>-0.0893789421513516</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>chr14</t>
+          <t>chr20</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>49853616</v>
+        <v>62387116</v>
       </c>
       <c r="L34" t="n">
-        <v>49853914</v>
+        <v>62388520</v>
       </c>
       <c r="M34" t="n">
-        <v>0.622073578595318</v>
+        <v>0.595017793594306</v>
       </c>
       <c r="N34" t="n">
-        <v>0.622073578595318</v>
+        <v>0.564701166977382</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.6259836636679577</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>299</v>
+        <v>1405</v>
       </c>
       <c r="Q34" t="n">
-        <v>298</v>
+        <v>1020</v>
       </c>
       <c r="R34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>misc_RNA</t>
+          <t>protein_coding</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>62.21</v>
+        <v>59.5</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Metazoa_SRP</t>
+          <t>RPS21</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3182,76 +3182,76 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B35" t="n">
-        <v>9714</v>
+        <v>16743</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ENSG00000171858</t>
+          <t>ENSG00000273599</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.707407936783607</v>
+        <v>0.96507756446077</v>
       </c>
       <c r="E35" t="n">
-        <v>6.6743869274052</v>
+        <v>-1.1574250864583</v>
       </c>
       <c r="F35" t="n">
-        <v>3.68114898960983</v>
+        <v>3.675270102514</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0003434263208868</v>
+        <v>0.0003506395048574</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0175416973380892</v>
+        <v>0.0177042722409498</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0893789421513516</v>
+        <v>-0.429840059316588</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>chr20</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>62387116</v>
+        <v>124996064</v>
       </c>
       <c r="L35" t="n">
-        <v>62388520</v>
+        <v>125001491</v>
       </c>
       <c r="M35" t="n">
-        <v>0.595017793594306</v>
+        <v>0.590456890198968</v>
       </c>
       <c r="N35" t="n">
-        <v>0.564701166977382</v>
+        <v>0.590456890198968</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.6259836636679577</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1405</v>
+        <v>5428</v>
       </c>
       <c r="Q35" t="n">
-        <v>1020</v>
+        <v>5427</v>
       </c>
       <c r="R35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>protein_coding</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>59.5</v>
+        <v>59.05</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>RPS21</t>
+          <t>RP11-59C5.3</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3262,76 +3262,76 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="B36" t="n">
-        <v>16743</v>
+        <v>11573</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ENSG00000273599</t>
+          <t>ENSG00000188290</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.96507756446077</v>
+        <v>0.991971029888842</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.1574250864583</v>
+        <v>1.76117635755481</v>
       </c>
       <c r="F36" t="n">
-        <v>3.675270102514</v>
+        <v>3.60287907906692</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0003506395048574</v>
+        <v>0.0004520588328565</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0177042722409498</v>
+        <v>0.0204193464064837</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.429840059316588</v>
+        <v>-0.160845438211798</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>chr10</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>124996064</v>
+        <v>998962</v>
       </c>
       <c r="L36" t="n">
-        <v>125001491</v>
+        <v>1000172</v>
       </c>
       <c r="M36" t="n">
-        <v>0.590456890198968</v>
+        <v>0.74318744838976</v>
       </c>
       <c r="N36" t="n">
-        <v>0.590456890198968</v>
+        <v>0.743269042805294</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.7661278086931836</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5428</v>
+        <v>1211</v>
       </c>
       <c r="Q36" t="n">
-        <v>5427</v>
+        <v>1520</v>
       </c>
       <c r="R36" t="n">
         <v>8</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>protein_coding</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>59.05</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>RP11-59C5.3</t>
+          <t>HES4</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3342,76 +3342,76 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B37" t="n">
-        <v>11573</v>
+        <v>16592</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ENSG00000188290</t>
+          <t>ENSG00000272677</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.991971029888842</v>
+        <v>1.11501445269728</v>
       </c>
       <c r="E37" t="n">
-        <v>1.76117635755481</v>
+        <v>-1.23174157387846</v>
       </c>
       <c r="F37" t="n">
-        <v>3.60287907906692</v>
+        <v>3.54777009167861</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0004520588328565</v>
+        <v>0.0005472157977916</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0204193464064837</v>
+        <v>0.0224128876060537</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.160845438211798</v>
+        <v>-0.776137701203226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>chr1</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>998962</v>
+        <v>82374301</v>
       </c>
       <c r="L37" t="n">
-        <v>1000172</v>
+        <v>82384027</v>
       </c>
       <c r="M37" t="n">
-        <v>0.74318744838976</v>
+        <v>0.451937904801069</v>
       </c>
       <c r="N37" t="n">
-        <v>0.743269042805294</v>
+        <v>0.512165854542407</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.7661278086931836</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1211</v>
+        <v>9727</v>
       </c>
       <c r="Q37" t="n">
-        <v>1520</v>
+        <v>904</v>
       </c>
       <c r="R37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>protein_coding</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>74.31999999999999</v>
+        <v>45.19</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>HES4</t>
+          <t>RP11-127B20.3</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3422,50 +3422,50 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B38" t="n">
-        <v>16592</v>
+        <v>13320</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ENSG00000272677</t>
+          <t>ENSG00000222020</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.11501445269728</v>
+        <v>0.860295518792439</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.23174157387846</v>
+        <v>-0.819917795064982</v>
       </c>
       <c r="F38" t="n">
-        <v>3.54777009167861</v>
+        <v>3.53324690774274</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0005472157977916</v>
+        <v>0.0005752719510241</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0224128876060537</v>
+        <v>0.0230252926001044</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.776137701203226</v>
+        <v>-0.684158156806053</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>82374301</v>
+        <v>239401436</v>
       </c>
       <c r="L38" t="n">
-        <v>82384027</v>
+        <v>239402364</v>
       </c>
       <c r="M38" t="n">
-        <v>0.451937904801069</v>
+        <v>0.640473627556512</v>
       </c>
       <c r="N38" t="n">
-        <v>0.512165854542407</v>
+        <v>0.621387151105681</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>9727</v>
+        <v>929</v>
       </c>
       <c r="Q38" t="n">
-        <v>904</v>
+        <v>610</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3487,11 +3487,11 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>45.19</v>
+        <v>64.05</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>RP11-127B20.3</t>
+          <t>AC062017.1</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3502,50 +3502,50 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>437</v>
+        <v>778</v>
       </c>
       <c r="B39" t="n">
-        <v>13320</v>
+        <v>16991</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ENSG00000222020</t>
+          <t>ENSG00000276791</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.860295518792439</v>
+        <v>0.673581469050464</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.819917795064982</v>
+        <v>0.846533692048419</v>
       </c>
       <c r="F39" t="n">
-        <v>3.53324690774274</v>
+        <v>3.19505932135886</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0005752719510241</v>
+        <v>0.0017683433266514</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0230252926001044</v>
+        <v>0.0397843285436513</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.684158156806053</v>
+        <v>-1.32761863355572</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>chr2</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>239401436</v>
+        <v>2777319</v>
       </c>
       <c r="L39" t="n">
-        <v>239402364</v>
+        <v>2780568</v>
       </c>
       <c r="M39" t="n">
-        <v>0.640473627556512</v>
+        <v>0.588615384615385</v>
       </c>
       <c r="N39" t="n">
-        <v>0.621387151105681</v>
+        <v>0.588615384615385</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3553,25 +3553,25 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>929</v>
+        <v>3250</v>
       </c>
       <c r="Q39" t="n">
-        <v>610</v>
+        <v>3249</v>
       </c>
       <c r="R39" t="n">
         <v>8</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>lincRNA</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>64.05</v>
+        <v>58.86</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>AC062017.1</t>
+          <t>CTD-2270P14.5</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3582,50 +3582,50 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>778</v>
+        <v>821</v>
       </c>
       <c r="B40" t="n">
-        <v>16991</v>
+        <v>16006</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ENSG00000276791</t>
+          <t>ENSG00000265393</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.673581469050464</v>
+        <v>0.778073252465578</v>
       </c>
       <c r="E40" t="n">
-        <v>0.846533692048419</v>
+        <v>-1.35771810835405</v>
       </c>
       <c r="F40" t="n">
-        <v>3.19505932135886</v>
+        <v>3.16880753467883</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0017683433266514</v>
+        <v>0.0019229109575371</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0397843285436513</v>
+        <v>0.0410042092656374</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.32761863355572</v>
+        <v>-1.64547975300137</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>chr16</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>2777319</v>
+        <v>144512567</v>
       </c>
       <c r="L40" t="n">
-        <v>2780568</v>
+        <v>144513672</v>
       </c>
       <c r="M40" t="n">
-        <v>0.588615384615385</v>
+        <v>0.660940325497288</v>
       </c>
       <c r="N40" t="n">
-        <v>0.588615384615385</v>
+        <v>0.636249105028364</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3633,25 +3633,25 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3250</v>
+        <v>1106</v>
       </c>
       <c r="Q40" t="n">
-        <v>3249</v>
+        <v>336</v>
       </c>
       <c r="R40" t="n">
         <v>8</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>lincRNA</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>58.86</v>
+        <v>66.09</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>CTD-2270P14.5</t>
+          <t>CTD-2517M22.17</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3662,159 +3662,79 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>821</v>
+        <v>923</v>
       </c>
       <c r="B41" t="n">
-        <v>16006</v>
+        <v>14013</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ENSG00000265393</t>
+          <t>ENSG00000232229</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.778073252465578</v>
+        <v>0.722888243278856</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.35771810835405</v>
+        <v>-0.126876074753008</v>
       </c>
       <c r="F41" t="n">
-        <v>3.16880753467883</v>
+        <v>3.0967820876132</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0019229109575371</v>
+        <v>0.0024138126007607</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0410042092656374</v>
+        <v>0.0458443307782836</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.64547975300137</v>
+        <v>-1.63436918740471</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>chr8</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>144512567</v>
+        <v>89829510</v>
       </c>
       <c r="L41" t="n">
-        <v>144513672</v>
+        <v>89840861</v>
       </c>
       <c r="M41" t="n">
-        <v>0.660940325497288</v>
+        <v>0.4211592670895</v>
       </c>
       <c r="N41" t="n">
-        <v>0.636249105028364</v>
+        <v>0.475926751966099</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.3697525206232814</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1106</v>
+        <v>11352</v>
       </c>
       <c r="Q41" t="n">
-        <v>336</v>
+        <v>4268</v>
       </c>
       <c r="R41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>lincRNA</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>66.09</v>
+        <v>42.12</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>CTD-2517M22.17</t>
+          <t>LINC00865</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B42" t="n">
-        <v>14013</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ENSG00000232229</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.722888243278856</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-0.126876074753008</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.0967820876132</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0024138126007607</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0458443307782836</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-1.63436918740471</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>chr10</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>89829510</v>
-      </c>
-      <c r="L42" t="n">
-        <v>89840861</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.4211592670895</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.475926751966099</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.3697525206232814</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>11352</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4268</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>lincRNA</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>42.12</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>LINC00865</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
         <is>
           <t>up</t>
         </is>
